--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z288"/>
+  <dimension ref="A1:Z289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45443</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44698</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44287.57435185185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44308.47594907408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,14 +1199,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4399-2025</t>
+          <t>A 15437-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45686</v>
+        <v>45747.47635416667</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1218,20 +1218,25 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>11.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1246,146 +1251,141 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 15437-2025 artfynd.xlsx", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 15437-2025 karta.png", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/knärot/A 15437-2025 karta knärot.png", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 15437-2025 FSC-klagomål.docx", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 15437-2025 FSC-klagomål mail.docx", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 15437-2025 tillsynsbegäran.docx", "A 15437-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 15437-2025 tillsynsbegäran mail.docx", "A 15437-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4399-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Scharlakansvaxing</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 4399-2025 artfynd.xlsx", "A 4399-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 4399-2025 karta.png", "A 4399-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 4399-2025 FSC-klagomål.docx", "A 4399-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 4399-2025 FSC-klagomål mail.docx", "A 4399-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 4399-2025 tillsynsbegäran.docx", "A 4399-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 4399-2025 tillsynsbegäran mail.docx", "A 4399-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 15437-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45747.47635416667</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖDESHÖG</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 15437-2025 artfynd.xlsx", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 15437-2025 karta.png", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/knärot/A 15437-2025 karta knärot.png", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 15437-2025 FSC-klagomål.docx", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 15437-2025 FSC-klagomål mail.docx", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 15437-2025 tillsynsbegäran.docx", "A 15437-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 15437-2025 tillsynsbegäran mail.docx", "A 15437-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 54419-2024</t>
+          <t>A 56637-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45617.48454861111</v>
+        <v>45243</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1397,13 +1397,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>22.7</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1412,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1430,38 +1425,38 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 54419-2024 artfynd.xlsx", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 56637-2023 artfynd.xlsx", "A 56637-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 54419-2024 karta.png", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 56637-2023 karta.png", "A 56637-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 54419-2024 FSC-klagomål.docx", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 56637-2023 FSC-klagomål.docx", "A 56637-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 54419-2024 FSC-klagomål mail.docx", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 56637-2023 FSC-klagomål mail.docx", "A 56637-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 54419-2024 tillsynsbegäran.docx", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 56637-2023 tillsynsbegäran.docx", "A 56637-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 54419-2024 tillsynsbegäran mail.docx", "A 54419-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 56637-2023 tillsynsbegäran mail.docx", "A 56637-2023")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1470,7 @@
         <v>45685.4172337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,14 +1553,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4497-2025</t>
+          <t>A 54419-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45686.67418981482</v>
+        <v>45617.48454861111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1579,11 +1574,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>22.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1592,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1601,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1610,126 +1605,131 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 54419-2024 artfynd.xlsx", "A 54419-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 54419-2024 karta.png", "A 54419-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 54419-2024 FSC-klagomål.docx", "A 54419-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 54419-2024 FSC-klagomål mail.docx", "A 54419-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 54419-2024 tillsynsbegäran.docx", "A 54419-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 54419-2024 tillsynsbegäran mail.docx", "A 54419-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4497-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45686.67418981482</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 4497-2025 artfynd.xlsx", "A 4497-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 4497-2025 karta.png", "A 4497-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 4497-2025 FSC-klagomål.docx", "A 4497-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 4497-2025 FSC-klagomål mail.docx", "A 4497-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 4497-2025 tillsynsbegäran.docx", "A 4497-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 4497-2025 tillsynsbegäran mail.docx", "A 4497-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 56637-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45243</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖDESHÖG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/artfynd/A 56637-2023 artfynd.xlsx", "A 56637-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/kartor/A 56637-2023 karta.png", "A 56637-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomål/A 56637-2023 FSC-klagomål.docx", "A 56637-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/klagomålsmail/A 56637-2023 FSC-klagomål mail.docx", "A 56637-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsyn/A 56637-2023 tillsynsbegäran.docx", "A 56637-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0509/tillsynsmail/A 56637-2023 tillsynsbegäran mail.docx", "A 56637-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>45748.62222222222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44421.37502314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44509.36778935185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44538.65775462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44614.65186342593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44582</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44803.32474537037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44510.67131944445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44538</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44466</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44421.37181712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44504</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44462.60795138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44517</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44386.36693287037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44666.42652777778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44756.6716087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44356.46009259259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,14 +2968,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55971-2023</t>
+          <t>A 34979-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45240.36252314815</v>
+        <v>44796</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34979-2022</t>
+          <t>A 71038-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44796</v>
+        <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9321-2025</t>
+          <t>A 30471-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45714</v>
+        <v>44364.59475694445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30945-2023</t>
+          <t>A 6705-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45113</v>
+        <v>45342.31283564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3158,8 +3158,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3196,14 +3201,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 71038-2021</t>
+          <t>A 15790-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44538</v>
+        <v>45748.62765046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3216,7 +3221,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3253,14 +3258,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16164-2023</t>
+          <t>A 5819-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45027</v>
+        <v>45335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3283,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3315,14 +3320,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30471-2021</t>
+          <t>A 35661-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44364.59475694445</v>
+        <v>45532.37288194444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,14 +3377,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62988-2023</t>
+          <t>A 36114-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45272</v>
+        <v>44803.27201388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3391,13 +3396,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36114-2022</t>
+          <t>A 26949-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44803.27201388889</v>
+        <v>45093.64758101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47600-2023</t>
+          <t>A 3198-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45203.45528935185</v>
+        <v>45316.6993287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55173-2024</t>
+          <t>A 22088-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45618</v>
+        <v>45069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>16.5</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30964-2023</t>
+          <t>A 8256-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45113.47913194444</v>
+        <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21770-2023</t>
+          <t>A 15813-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45065</v>
+        <v>44664</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3681,8 +3681,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3719,14 +3724,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7854-2021</t>
+          <t>A 38152-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44242</v>
+        <v>45161.39238425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3744,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3776,14 +3781,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19351-2023</t>
+          <t>A 56841-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45049.59413194445</v>
+        <v>44894.47734953704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3801,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3833,14 +3838,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11099-2025</t>
+          <t>A 1578-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45723.58368055556</v>
+        <v>44937.6200925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3853,7 +3858,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3890,14 +3895,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38266-2022</t>
+          <t>A 11280-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44812</v>
+        <v>45726.41981481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3910,7 +3915,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3947,14 +3952,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39829-2025</t>
+          <t>A 44069-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45891.55820601852</v>
+        <v>45188.40855324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3967,7 +3972,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4004,14 +4009,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39024-2023</t>
+          <t>A 15909-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45163.82409722222</v>
+        <v>45405.43575231481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,13 +4028,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4066,14 +4066,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15906-2024</t>
+          <t>A 61011-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45405</v>
+        <v>45645.4471875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4123,14 +4123,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39832-2025</t>
+          <t>A 13629-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45891.56042824074</v>
+        <v>45736.64368055556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4180,14 +4180,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40102-2025</t>
+          <t>A 38259-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45894.4878587963</v>
+        <v>45161.5974537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4237,14 +4237,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40604-2025</t>
+          <t>A 39032-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45896.56527777778</v>
+        <v>45163.86392361111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,8 +4256,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4294,14 +4299,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40498-2025</t>
+          <t>A 39920-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45896.32207175926</v>
+        <v>45553.53635416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4319,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4351,14 +4356,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21771-2023</t>
+          <t>A 45973-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45065.8480787037</v>
+        <v>45580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4376,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4408,14 +4413,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64010-2025</t>
+          <t>A 9448-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46021.43045138889</v>
+        <v>44981.54462962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4427,13 +4432,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>15.4</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4470,14 +4470,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64015-2025</t>
+          <t>A 54226-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46021.44653935185</v>
+        <v>44470.6253125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,13 +4489,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4532,14 +4527,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41730-2025</t>
+          <t>A 46528-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45902.46303240741</v>
+        <v>45582.63575231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4552,7 +4547,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4589,14 +4584,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 163-2026</t>
+          <t>A 55173-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46024.75453703704</v>
+        <v>45618</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4609,7 +4604,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4646,14 +4641,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29105-2021</t>
+          <t>A 36075-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44358</v>
+        <v>45149</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,13 +4660,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4708,14 +4698,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 165-2026</t>
+          <t>A 29105-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46024</v>
+        <v>44358</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4727,8 +4717,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4765,14 +4760,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 619-2026</t>
+          <t>A 1674-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46029.54315972222</v>
+        <v>44938.38943287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4785,7 +4780,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4822,14 +4817,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 622-2026</t>
+          <t>A 35079-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46029.54603009259</v>
+        <v>45145.42855324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4842,7 +4837,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4879,14 +4874,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 602-2026</t>
+          <t>A 6421-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46029.50876157408</v>
+        <v>45699.48409722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4899,7 +4894,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4936,14 +4931,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1133-2026</t>
+          <t>A 6456-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46030.75045138889</v>
+        <v>45699.55743055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4956,7 +4951,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4993,14 +4988,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1285-2026</t>
+          <t>A 17618-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46031.49496527778</v>
+        <v>45416.90940972222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5013,7 +5008,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5050,14 +5045,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1585-2026</t>
+          <t>A 39829-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46034.43668981481</v>
+        <v>45891.55820601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5069,13 +5064,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5112,14 +5102,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1784-2026</t>
+          <t>A 47993-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46034.75418981481</v>
+        <v>45589.43387731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5122,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5169,14 +5159,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1589-2026</t>
+          <t>A 39832-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46034.44234953704</v>
+        <v>45891.56042824074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,13 +5178,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5231,14 +5216,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1785-2026</t>
+          <t>A 5513-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46034.76097222222</v>
+        <v>45693.40201388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5251,7 +5236,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5288,14 +5273,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1261-2026</t>
+          <t>A 58551-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46031.45724537037</v>
+        <v>45251</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5308,7 +5293,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5345,14 +5330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1284-2026</t>
+          <t>A 27958-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46031.49496527778</v>
+        <v>45817.54012731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5350,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5402,14 +5387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1268-2026</t>
+          <t>A 6164-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46031.46385416666</v>
+        <v>45337.50011574074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5459,14 +5444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1273-2026</t>
+          <t>A 14156-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46031.4699537037</v>
+        <v>45009.49569444444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5479,7 +5464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5516,14 +5501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1337-2026</t>
+          <t>A 9319-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46031.57445601852</v>
+        <v>45714</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5521,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5573,14 +5558,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1264-2026</t>
+          <t>A 40102-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46031.46109953704</v>
+        <v>45894.4878587963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5578,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5630,14 +5615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44553-2025</t>
+          <t>A 15446-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45917.34028935185</v>
+        <v>45747.48505787037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,8 +5634,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5687,14 +5677,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44565-2025</t>
+          <t>A 13129-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45917.35539351852</v>
+        <v>45002.51563657408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,7 +5697,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5744,14 +5734,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45190-2025</t>
+          <t>A 40498-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45919</v>
+        <v>45896.32207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5754,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5801,14 +5791,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30389-2024</t>
+          <t>A 40604-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45491</v>
+        <v>45896.56527777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5811,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5858,14 +5848,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1578-2023</t>
+          <t>A 35411-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44937.6200925926</v>
+        <v>45146.60487268519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5868,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5915,14 +5905,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54226-2021</t>
+          <t>A 56797-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44470.6253125</v>
+        <v>45244</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5925,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5972,14 +5962,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48325-2022</t>
+          <t>A 16270-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44858</v>
+        <v>45407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,13 +5981,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6034,14 +6019,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47993-2024</t>
+          <t>A 50774-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45589.43387731481</v>
+        <v>45210</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6039,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>9.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6091,14 +6076,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64802-2021</t>
+          <t>A 16162-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44512</v>
+        <v>45027</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6110,8 +6095,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6148,14 +6138,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6164-2024</t>
+          <t>A 41730-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45337.50011574074</v>
+        <v>45902.46303240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6168,7 +6158,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6205,14 +6195,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6705-2024</t>
+          <t>A 29296-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45342.31283564815</v>
+        <v>45824.44797453703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6224,13 +6214,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>8.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6267,14 +6252,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35661-2024</t>
+          <t>A 11099-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45532.37288194444</v>
+        <v>45723.58368055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6272,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6324,14 +6309,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46063-2025</t>
+          <t>A 20244-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45924.47732638889</v>
+        <v>44698.63287037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6343,8 +6328,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6381,14 +6371,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56841-2022</t>
+          <t>A 6557-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44894.47734953704</v>
+        <v>45699.73377314815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6391,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6438,14 +6428,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 1323-2023</t>
+          <t>A 32378-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44936.55375</v>
+        <v>45512.61466435185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6448,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6495,14 +6485,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32335-2024</t>
+          <t>A 44553-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45512.48333333333</v>
+        <v>45917.34028935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6505,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6552,14 +6542,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46059-2025</t>
+          <t>A 44565-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45924.465625</v>
+        <v>45917.35539351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6562,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6609,14 +6599,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35079-2023</t>
+          <t>A 45190-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45145.42855324074</v>
+        <v>45919</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6666,14 +6656,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4772-2022</t>
+          <t>A 30600-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44592</v>
+        <v>45831.45087962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6676,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6723,14 +6713,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46788-2025</t>
+          <t>A 19351-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45926.64662037037</v>
+        <v>45049.59413194445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6733,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6780,14 +6770,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46805-2025</t>
+          <t>A 46063-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45926.67944444445</v>
+        <v>45924.47732638889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6790,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6837,14 +6827,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46778-2025</t>
+          <t>A 32335-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45926.63998842592</v>
+        <v>45512.48333333333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6847,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6894,14 +6884,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45973-2024</t>
+          <t>A 8515-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45580</v>
+        <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6904,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6951,14 +6941,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46999-2025</t>
+          <t>A 61880-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45929.54858796296</v>
+        <v>44502</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6961,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7008,14 +6998,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45651-2023</t>
+          <t>A 46059-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45194.71233796296</v>
+        <v>45924.465625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7018,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7065,14 +7055,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30388-2024</t>
+          <t>A 46778-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45491</v>
+        <v>45926.63998842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7075,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7122,14 +7112,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3149-2024</t>
+          <t>A 46805-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45316</v>
+        <v>45926.67944444445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7132,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7179,14 +7169,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61801-2025</t>
+          <t>A 46999-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.72216435185</v>
+        <v>45929.54858796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7189,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7236,14 +7226,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61470-2025</t>
+          <t>A 46788-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46001</v>
+        <v>45926.64662037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7255,13 +7245,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7298,14 +7283,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48063-2025</t>
+          <t>A 47648-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45932.68246527778</v>
+        <v>45931.52583333333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7318,7 +7303,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7355,14 +7340,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47597-2023</t>
+          <t>A 32466-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45203</v>
+        <v>45838.42087962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7360,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7412,14 +7397,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61796-2025</t>
+          <t>A 32776-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46002.70064814815</v>
+        <v>45839</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7417,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7469,14 +7454,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61798-2025</t>
+          <t>A 32476-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.70159722222</v>
+        <v>45838.429375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,13 +7473,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7531,14 +7511,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61800-2025</t>
+          <t>A 32774-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46002.71087962963</v>
+        <v>45839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7551,7 +7531,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7588,14 +7568,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47648-2025</t>
+          <t>A 33375-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45931.52583333333</v>
+        <v>45519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,8 +7587,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7645,14 +7630,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61629-2025</t>
+          <t>A 32464-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46002.40453703704</v>
+        <v>45838.41809027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7650,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7702,14 +7687,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15907-2024</t>
+          <t>A 48063-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45405.4284837963</v>
+        <v>45932.68246527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7707,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7759,14 +7744,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15915-2024</t>
+          <t>A 43263-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45405.44401620371</v>
+        <v>45183</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7764,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7816,14 +7801,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48575-2025</t>
+          <t>A 8042-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45936.45259259259</v>
+        <v>45707.60079861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7821,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7873,14 +7858,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61786-2025</t>
+          <t>A 48611-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46002.68319444444</v>
+        <v>45936.48025462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7878,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7930,14 +7915,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48611-2025</t>
+          <t>A 48614-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45936.48025462963</v>
+        <v>45936.48396990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7950,7 +7935,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7987,14 +7972,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48614-2025</t>
+          <t>A 46536-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45936.48396990741</v>
+        <v>45582.645</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8007,7 +7992,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8044,14 +8029,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9500-2021</t>
+          <t>A 48575-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44251</v>
+        <v>45936.45259259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8064,7 +8049,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8101,14 +8086,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61809-2025</t>
+          <t>A 48860-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46002.83247685185</v>
+        <v>45937.44017361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8121,7 +8106,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8158,14 +8143,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48860-2025</t>
+          <t>A 12198-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45937.44017361111</v>
+        <v>45729.47584490741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,8 +8162,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8215,14 +8205,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17618-2024</t>
+          <t>A 38212-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45416.90940972222</v>
+        <v>45161</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8235,7 +8225,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8272,14 +8262,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35229-2023</t>
+          <t>A 3130-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45145.65895833333</v>
+        <v>45678.74392361111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,8 +8281,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>18.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8329,14 +8324,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 61808-2025</t>
+          <t>A 48958-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46002.82631944444</v>
+        <v>45937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8349,7 +8344,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8386,14 +8381,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5819-2024</t>
+          <t>A 15907-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45335</v>
+        <v>45405.4284837963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,13 +8400,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8448,14 +8438,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13129-2023</t>
+          <t>A 15915-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45002.51563657408</v>
+        <v>45405.44401620371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8468,7 +8458,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8505,14 +8495,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5283-2024</t>
+          <t>A 20232-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45331</v>
+        <v>44698</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8524,8 +8514,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8562,14 +8557,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15452-2025</t>
+          <t>A 50416-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45747.4921875</v>
+        <v>45944.64935185185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8581,13 +8576,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8624,14 +8614,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62202-2025</t>
+          <t>A 50358-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46006.55504629629</v>
+        <v>45944.56123842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8644,7 +8634,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8681,14 +8671,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62305-2025</t>
+          <t>A 51171-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46006.66827546297</v>
+        <v>45947.60431712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8701,7 +8691,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8738,14 +8728,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48958-2025</t>
+          <t>A 35181-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45937</v>
+        <v>45852.96164351852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8758,7 +8748,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8795,14 +8785,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62303-2025</t>
+          <t>A 6512-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46006.66340277778</v>
+        <v>45699.65527777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8814,13 +8804,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8857,14 +8842,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14750-2023</t>
+          <t>A 51328-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45014.52033564815</v>
+        <v>45950.41077546297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8877,7 +8862,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8914,14 +8899,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61972-2025</t>
+          <t>A 8063-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46003.59736111111</v>
+        <v>45707.63336805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8933,13 +8918,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8976,14 +8956,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50416-2025</t>
+          <t>A 32713-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45944.64935185185</v>
+        <v>45516.37510416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8996,7 +8976,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9033,14 +9013,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14156-2023</t>
+          <t>A 32715-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45009.49569444444</v>
+        <v>45516.37806712963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9053,7 +9033,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9090,14 +9070,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62775-2025</t>
+          <t>A 28923-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46008.60917824074</v>
+        <v>45820.6679050926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9110,7 +9090,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>13.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9147,14 +9127,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50358-2025</t>
+          <t>A 51048-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45944.56123842593</v>
+        <v>45947.43230324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9167,7 +9147,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9204,14 +9184,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62801-2025</t>
+          <t>A 6465-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46008.63946759259</v>
+        <v>45699.57212962963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9224,7 +9204,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9261,14 +9241,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62482-2025</t>
+          <t>A 1749-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46007.56096064814</v>
+        <v>45671.40879629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9281,7 +9261,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9318,14 +9298,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63115-2025</t>
+          <t>A 9500-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46009.76274305556</v>
+        <v>44251</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9338,7 +9318,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9375,14 +9355,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51171-2025</t>
+          <t>A 17126-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45947.60431712963</v>
+        <v>45412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9395,7 +9375,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9432,14 +9412,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 51328-2025</t>
+          <t>A 4640-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45950.41077546297</v>
+        <v>45328</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9452,7 +9432,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9489,14 +9469,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61880-2021</t>
+          <t>A 4678-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44502</v>
+        <v>45328</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9509,7 +9489,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9546,14 +9526,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46528-2024</t>
+          <t>A 5151-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45582.63575231482</v>
+        <v>45691.59927083334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9566,7 +9546,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9603,14 +9583,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 63074-2025</t>
+          <t>A 21771-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46009.66163194444</v>
+        <v>45065.8480787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9622,13 +9602,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9665,14 +9640,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8256-2023</t>
+          <t>A 20720-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44974</v>
+        <v>45776.49586805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9685,7 +9660,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9722,14 +9697,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22088-2023</t>
+          <t>A 55901-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45069</v>
+        <v>45973.38752314815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9742,7 +9717,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9779,14 +9754,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36099-2024</t>
+          <t>A 64802-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45533.77303240741</v>
+        <v>44512</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9799,7 +9774,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9836,14 +9811,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51048-2025</t>
+          <t>A 55906-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45947.43230324074</v>
+        <v>45973.39159722222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9856,7 +9831,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9893,14 +9868,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14736-2024</t>
+          <t>A 16128-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45397</v>
+        <v>45750.42609953704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9912,8 +9887,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9950,14 +9930,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20232-2022</t>
+          <t>A 55908-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44698</v>
+        <v>45973.39390046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9969,13 +9949,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10012,14 +9987,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1279-2026</t>
+          <t>A 3149-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46031.47650462963</v>
+        <v>45316</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10032,7 +10007,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10069,14 +10044,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14185-2023</t>
+          <t>A 64015-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45009.55140046297</v>
+        <v>46021.44653935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10088,8 +10063,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10126,14 +10106,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51727-2024</t>
+          <t>A 39024-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45607.38569444444</v>
+        <v>45163.82409722222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10145,8 +10125,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10183,14 +10168,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14166-2023</t>
+          <t>A 64010-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45009.50450231481</v>
+        <v>46021.43045138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10202,8 +10187,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>15.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10240,14 +10230,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 19350-2023</t>
+          <t>A 51180-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45049</v>
+        <v>45603.60148148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10260,7 +10250,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10297,14 +10287,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16162-2023</t>
+          <t>A 35229-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45027</v>
+        <v>45145.65895833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10316,13 +10306,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10359,14 +10344,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38212-2023</t>
+          <t>A 62988-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45161</v>
+        <v>45272</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10378,8 +10363,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>19</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10416,14 +10406,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 11972-2023</t>
+          <t>A 163-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44994</v>
+        <v>46024.75453703704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10426,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10473,14 +10463,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 27087-2024</t>
+          <t>A 51178-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45471</v>
+        <v>45603.59828703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10483,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10530,14 +10520,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 15399-2025</t>
+          <t>A 619-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45747.4431712963</v>
+        <v>46029.54315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10540,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10587,14 +10577,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 20720-2025</t>
+          <t>A 622-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45776.49586805556</v>
+        <v>46029.54603009259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10597,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10644,14 +10634,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58052-2021</t>
+          <t>A 165-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44487</v>
+        <v>46024</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10663,13 +10653,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10706,14 +10691,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58551-2023</t>
+          <t>A 602-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45251</v>
+        <v>46029.50876157408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10726,7 +10711,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10763,14 +10748,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39920-2024</t>
+          <t>A 6487-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45553.53635416667</v>
+        <v>45699.62314814814</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10783,7 +10768,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10820,14 +10805,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46536-2024</t>
+          <t>A 19157-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45582.645</v>
+        <v>45048.59175925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10840,7 +10825,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10877,14 +10862,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55908-2025</t>
+          <t>A 60994-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45973.39390046296</v>
+        <v>45645.4250925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10897,7 +10882,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10934,14 +10919,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60994-2024</t>
+          <t>A 55971-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45645.4250925926</v>
+        <v>45240.36252314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10954,7 +10939,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10991,14 +10976,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55901-2025</t>
+          <t>A 1261-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45973.38752314815</v>
+        <v>46031.45724537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11011,7 +10996,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11048,14 +11033,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 55906-2025</t>
+          <t>A 16164-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45973.39159722222</v>
+        <v>45027</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11067,8 +11052,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11105,14 +11095,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4640-2024</t>
+          <t>A 1273-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45328</v>
+        <v>46031.4699537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11125,7 +11115,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11162,14 +11152,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 4678-2024</t>
+          <t>A 1268-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45328</v>
+        <v>46031.46385416666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11182,7 +11172,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11219,14 +11209,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6484-2025</t>
+          <t>A 1284-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45699.61924768519</v>
+        <v>46031.49496527778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11239,7 +11229,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11276,14 +11266,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6487-2025</t>
+          <t>A 1285-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45699.62314814814</v>
+        <v>46031.49496527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11296,7 +11286,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11333,14 +11323,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35095-2023</t>
+          <t>A 1264-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45145.45221064815</v>
+        <v>46031.46109953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11343,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11390,14 +11380,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1749-2025</t>
+          <t>A 39024-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45671.40879629629</v>
+        <v>45163.82409722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11409,8 +11399,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11447,14 +11442,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28477-2021</t>
+          <t>A 39027-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44356.58797453704</v>
+        <v>45163.83277777778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11466,8 +11461,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11504,14 +11504,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 39032-2023</t>
+          <t>A 1133-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45163.86392361111</v>
+        <v>46030.75045138889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11523,13 +11523,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11566,14 +11561,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15909-2024</t>
+          <t>A 1337-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45405.43575231481</v>
+        <v>46031.57445601852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11581,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11623,14 +11618,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 14993-2023</t>
+          <t>A 1785-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45015.56837962963</v>
+        <v>46034.76097222222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11638,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11680,14 +11675,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8067-2025</t>
+          <t>A 38720-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45707.64212962963</v>
+        <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11695,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11737,14 +11732,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6375-2025</t>
+          <t>A 47597-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45699.40489583334</v>
+        <v>45203</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11752,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11794,14 +11789,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11280-2025</t>
+          <t>A 1784-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45726.41981481481</v>
+        <v>46034.75418981481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11809,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11851,14 +11846,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 32378-2024</t>
+          <t>A 1589-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45512.61466435185</v>
+        <v>46034.44234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11870,8 +11865,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11908,14 +11908,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 8037-2025</t>
+          <t>A 1585-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45707.5974537037</v>
+        <v>46034.43668981481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11927,8 +11927,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11965,14 +11970,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8049-2025</t>
+          <t>A 14166-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45707.60672453704</v>
+        <v>45009.50450231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11990,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12022,14 +12027,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 38152-2023</t>
+          <t>A 15344-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45161.39238425926</v>
+        <v>45747.37114583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12047,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12079,14 +12084,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8515-2022</t>
+          <t>A 10335-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44613</v>
+        <v>44623.30403935185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12104,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12136,14 +12141,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 8042-2025</t>
+          <t>A 35095-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45707.60079861111</v>
+        <v>45145.45221064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12161,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>14.5</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12193,14 +12198,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38723-2023</t>
+          <t>A 20612-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45163</v>
+        <v>44700.49002314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12212,8 +12217,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12250,14 +12260,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51180-2024</t>
+          <t>A 15198-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45603.60148148148</v>
+        <v>44658.63459490741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12280,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12307,14 +12317,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3130-2025</t>
+          <t>A 6375-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45678.74392361111</v>
+        <v>45699.40489583334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12326,13 +12336,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>18.6</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12369,14 +12374,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61011-2024</t>
+          <t>A 6592-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45645.4471875</v>
+        <v>45700.31006944444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12394,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12426,14 +12431,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9319-2025</t>
+          <t>A 37843-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45714</v>
+        <v>45160.37083333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12451,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12483,14 +12488,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 39190-2023</t>
+          <t>A 35443-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45166</v>
+        <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12508,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12540,14 +12545,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16128-2025</t>
+          <t>A 6506-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45750.42609953704</v>
+        <v>45699.64960648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12559,13 +12564,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12602,14 +12602,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5350-2025</t>
+          <t>A 61808-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45692.5587962963</v>
+        <v>46002.82631944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12659,14 +12659,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 16168-2023</t>
+          <t>A 61786-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45027.68865740741</v>
+        <v>46002.68319444444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12678,13 +12678,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12721,14 +12716,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38718-2023</t>
+          <t>A 61796-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45163.35730324074</v>
+        <v>46002.70064814815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12741,7 +12736,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12778,14 +12773,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2512-2024</t>
+          <t>A 61798-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45313</v>
+        <v>46002.70159722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12797,8 +12792,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12835,14 +12835,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51178-2024</t>
+          <t>A 61800-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45603.59828703704</v>
+        <v>46002.71087962963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12892,14 +12892,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12198-2025</t>
+          <t>A 61801-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45729.47584490741</v>
+        <v>46002.72216435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12911,13 +12911,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12954,14 +12949,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 35380-2023</t>
+          <t>A 61809-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45146.5737037037</v>
+        <v>46002.83247685185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12974,7 +12969,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13011,14 +13006,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6592-2025</t>
+          <t>A 61972-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45700.31006944444</v>
+        <v>46003.59736111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13030,8 +13025,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13068,14 +13068,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 43263-2023</t>
+          <t>A 61470-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45183</v>
+        <v>46001</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13087,8 +13087,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13125,14 +13130,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 20244-2022</t>
+          <t>A 61629-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44698.63287037037</v>
+        <v>46002.40453703704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13144,13 +13149,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13187,14 +13187,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 20612-2022</t>
+          <t>A 5283-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44700.49002314815</v>
+        <v>45331</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13206,13 +13206,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>8.9</v>
+        <v>3.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13249,14 +13244,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5151-2025</t>
+          <t>A 62303-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45691.59927083334</v>
+        <v>46006.66340277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13268,8 +13263,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13306,14 +13306,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6421-2025</t>
+          <t>A 62305-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45699.48409722222</v>
+        <v>46006.66827546297</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13363,14 +13363,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52469-2023</t>
+          <t>A 62482-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45225.42056712963</v>
+        <v>46007.56096064814</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13420,14 +13420,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8063-2025</t>
+          <t>A 62202-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45707.63336805555</v>
+        <v>46006.55504629629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13477,14 +13477,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15790-2025</t>
+          <t>A 62775-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45748.62765046296</v>
+        <v>46008.60917824074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13534,14 +13534,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 37843-2023</t>
+          <t>A 38723-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45160.37083333333</v>
+        <v>45163</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13591,14 +13591,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6465-2025</t>
+          <t>A 63074-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45699.57212962963</v>
+        <v>46009.66163194444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13610,8 +13610,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13648,14 +13653,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 1674-2023</t>
+          <t>A 50387-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44938.38943287037</v>
+        <v>45600</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13673,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13705,14 +13710,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 34961-2022</t>
+          <t>A 62801-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44796</v>
+        <v>46008.63946759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13730,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13762,14 +13767,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19157-2023</t>
+          <t>A 2512-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45048.59175925926</v>
+        <v>45313</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13782,7 +13787,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13819,14 +13824,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 15393-2025</t>
+          <t>A 64709-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45747.43165509259</v>
+        <v>45281.67853009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13839,7 +13844,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13876,14 +13881,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 39024-2023</t>
+          <t>A 64710-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45163.82409722222</v>
+        <v>45281.68364583333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13895,13 +13900,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13938,14 +13938,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 39027-2023</t>
+          <t>A 36730-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45163.83277777778</v>
+        <v>45153</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13957,13 +13957,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14000,14 +13995,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 17126-2024</t>
+          <t>A 63115-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45412</v>
+        <v>46009.76274305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14020,7 +14015,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14057,14 +14052,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 50774-2023</t>
+          <t>A 1279-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45210</v>
+        <v>46031.47650462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14077,7 +14072,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>9.5</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14114,14 +14109,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35443-2022</t>
+          <t>A 16168-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44798</v>
+        <v>45027.68865740741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14133,8 +14128,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14171,14 +14171,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11193-2023</t>
+          <t>A 21770-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44992</v>
+        <v>45065</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14228,14 +14228,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26949-2023</t>
+          <t>A 36099-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45093.64758101852</v>
+        <v>45533.77303240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14285,14 +14285,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6506-2025</t>
+          <t>A 38718-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45699.64960648148</v>
+        <v>45163.35730324074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14342,14 +14342,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12332-2023</t>
+          <t>A 7375-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44999.36930555556</v>
+        <v>46059.3469675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14399,14 +14399,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 36075-2023</t>
+          <t>A 5350-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45149</v>
+        <v>45692.5587962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14456,14 +14456,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7336-2024</t>
+          <t>A 15906-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45345.43415509259</v>
+        <v>45405</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14513,14 +14513,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15198-2022</t>
+          <t>A 35097-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44658.63459490741</v>
+        <v>45145.45475694445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14570,14 +14570,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 38720-2023</t>
+          <t>A 30945-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45163</v>
+        <v>45113</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14627,14 +14627,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 6456-2025</t>
+          <t>A 30964-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45699.55743055556</v>
+        <v>45113.47913194444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14684,14 +14684,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 21855-2022</t>
+          <t>A 48325-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44709</v>
+        <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14703,8 +14703,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14741,14 +14746,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 72603-2021</t>
+          <t>A 11699-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44546.49693287037</v>
+        <v>45373.60663194444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14761,7 +14766,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14798,14 +14803,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9448-2023</t>
+          <t>A 11704-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44981.54462962963</v>
+        <v>45373.61019675926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14818,7 +14823,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14855,14 +14860,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64709-2023</t>
+          <t>A 6484-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45281.67853009259</v>
+        <v>45699.61924768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14875,7 +14880,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14912,14 +14917,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 64710-2023</t>
+          <t>A 51727-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45281.68364583333</v>
+        <v>45607.38569444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14932,7 +14937,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14969,14 +14974,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 35097-2023</t>
+          <t>A 11193-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45145.45475694445</v>
+        <v>44992</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14989,7 +14994,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15026,14 +15031,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35411-2023</t>
+          <t>A 8049-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45146.60487268519</v>
+        <v>45707.60672453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15046,7 +15051,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15083,14 +15088,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 36730-2023</t>
+          <t>A 8067-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45153</v>
+        <v>45707.64212962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15103,7 +15108,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15140,14 +15145,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 25729-2023</t>
+          <t>A 30389-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45084</v>
+        <v>45491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15160,7 +15165,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15197,14 +15202,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11699-2024</t>
+          <t>A 35380-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45373.60663194444</v>
+        <v>45146.5737037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15217,7 +15222,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15254,14 +15259,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 11704-2024</t>
+          <t>A 58052-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45373.61019675926</v>
+        <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15273,8 +15278,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15311,14 +15321,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 54590-2024</t>
+          <t>A 15452-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45617.66524305556</v>
+        <v>45747.4921875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15330,8 +15340,13 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15368,14 +15383,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 10335-2022</t>
+          <t>A 34961-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44623.30403935185</v>
+        <v>44796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15388,7 +15403,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15425,14 +15440,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13629-2025</t>
+          <t>A 7854-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45736.64368055556</v>
+        <v>44242</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15445,7 +15460,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15482,14 +15497,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 33375-2024</t>
+          <t>A 14185-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45519</v>
+        <v>45009.55140046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15501,13 +15516,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15544,14 +15554,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 5513-2025</t>
+          <t>A 15399-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45693.40201388889</v>
+        <v>45747.4431712963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15564,7 +15574,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15601,14 +15611,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 15813-2022</t>
+          <t>A 27087-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44664</v>
+        <v>45471</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15620,13 +15630,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15663,14 +15668,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 6512-2025</t>
+          <t>A 6368-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45699.65527777778</v>
+        <v>45699.38880787037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15683,7 +15688,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15720,14 +15725,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 6368-2025</t>
+          <t>A 39190-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45699.38880787037</v>
+        <v>45166</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15740,7 +15745,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15777,14 +15782,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 44069-2023</t>
+          <t>A 54590-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45188.40855324074</v>
+        <v>45617.66524305556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15797,7 +15802,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15834,14 +15839,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 3198-2024</t>
+          <t>A 28477-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45316.6993287037</v>
+        <v>44356.58797453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15854,7 +15859,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15891,14 +15896,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 16270-2024</t>
+          <t>A 14993-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45407</v>
+        <v>45015.56837962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15911,7 +15916,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15948,14 +15953,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 51041-2024</t>
+          <t>A 4772-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45603.43375</v>
+        <v>44592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15968,7 +15973,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16005,14 +16010,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 56797-2023</t>
+          <t>A 52469-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45244</v>
+        <v>45225.42056712963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16025,7 +16030,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16062,14 +16067,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 6557-2025</t>
+          <t>A 19350-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45699.73377314815</v>
+        <v>45049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16082,7 +16087,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16119,14 +16124,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 15344-2025</t>
+          <t>A 51041-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45747.37114583333</v>
+        <v>45603.43375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16139,7 +16144,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16176,14 +16181,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 6517-2025</t>
+          <t>A 8037-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45699.65956018519</v>
+        <v>45707.5974537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16196,7 +16201,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16233,14 +16238,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 15446-2025</t>
+          <t>A 11972-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45747.48505787037</v>
+        <v>44994</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16252,13 +16257,8 @@
           <t>ÖDESHÖG</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16295,14 +16295,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 50387-2024</t>
+          <t>A 9321-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45600</v>
+        <v>45714</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16352,14 +16352,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 32713-2024</t>
+          <t>A 12332-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45516.37510416667</v>
+        <v>44999.36930555556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16409,14 +16409,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 32715-2024</t>
+          <t>A 38266-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45516.37806712963</v>
+        <v>44812</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16466,14 +16466,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 38259-2023</t>
+          <t>A 6517-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45161.5974537037</v>
+        <v>45699.65956018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16523,14 +16523,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 21530-2025</t>
+          <t>A 1323-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45782.65224537037</v>
+        <v>44936.55375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16580,14 +16580,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21357-2025</t>
+          <t>A 14736-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45782.42425925926</v>
+        <v>45397</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16637,14 +16637,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21667-2025</t>
+          <t>A 25729-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45783.46362268519</v>
+        <v>45084</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16694,14 +16694,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 3554-2025</t>
+          <t>A 7336-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45680</v>
+        <v>45345.43415509259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16751,14 +16751,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 50818-2023</t>
+          <t>A 15393-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45217</v>
+        <v>45747.43165509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16808,14 +16808,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 24033-2025</t>
+          <t>A 30388-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45796.47868055556</v>
+        <v>45491</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16865,14 +16865,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24035-2025</t>
+          <t>A 21855-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45796.4834837963</v>
+        <v>44709</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16922,14 +16922,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 21336-2025</t>
+          <t>A 72603-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45782.37634259259</v>
+        <v>44546.49693287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16979,14 +16979,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 27958-2025</t>
+          <t>A 14750-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45817.54012731482</v>
+        <v>45014.52033564815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17036,14 +17036,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 29296-2025</t>
+          <t>A 45651-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45824.44797453703</v>
+        <v>45194.71233796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17093,14 +17093,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 30600-2025</t>
+          <t>A 47600-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45831.45087962963</v>
+        <v>45203.45528935185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17150,14 +17150,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 32476-2025</t>
+          <t>A 21667-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45838.429375</v>
+        <v>45783.46362268519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17207,14 +17207,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 32464-2025</t>
+          <t>A 21357-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45838.41809027778</v>
+        <v>45782.42425925926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17264,14 +17264,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 32466-2025</t>
+          <t>A 21530-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45838.42087962963</v>
+        <v>45782.65224537037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17321,14 +17321,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 32776-2025</t>
+          <t>A 3554-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45839</v>
+        <v>45680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17378,14 +17378,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 32774-2025</t>
+          <t>A 50818-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45839</v>
+        <v>45217</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17435,14 +17435,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 35181-2025</t>
+          <t>A 21336-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45852.96164351852</v>
+        <v>45782.37634259259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17489,17 +17489,17 @@
       </c>
       <c r="R287" s="2" t="inlineStr"/>
     </row>
-    <row r="288">
+    <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 28923-2025</t>
+          <t>A 24033-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45820.6679050926</v>
+        <v>45796.47868055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17545,6 +17545,63 @@
         <v>0</v>
       </c>
       <c r="R288" s="2" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>A 24035-2025</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>45796.4834837963</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -575,7 +575,7 @@
         <v>45845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45443</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44698</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44287.57435185185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44308.47594907408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>45747.47635416667</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45686</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45243</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45685.4172337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45617.48454861111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>45686.67418981482</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>45748.62222222222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44421.37502314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44509.36778935185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44538.65775462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44614.65186342593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44582</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44803.32474537037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44510.67131944445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44538</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44466</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44421.37181712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44504</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44462.60795138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44517</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44386.36693287037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44666.42652777778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44756.6716087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44356.46009259259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44796</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44364.59475694445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45342.31283564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45748.62765046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>45335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45532.37288194444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44803.27201388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45093.64758101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45316.6993287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>45069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44664</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>45161.39238425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44894.47734953704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44937.6200925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45726.41981481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45188.40855324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45405.43575231481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45645.4471875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45736.64368055556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>45161.5974537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>45163.86392361111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>45553.53635416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>45580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44981.54462962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44470.6253125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>45582.63575231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>45618</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>45149</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44358</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44938.38943287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>45145.42855324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45699.48409722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45699.55743055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45416.90940972222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45891.55820601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>45589.43387731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45891.56042824074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45693.40201388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45251</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45817.54012731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45337.50011574074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45009.49569444444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>45714</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45894.4878587963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>45747.48505787037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>45002.51563657408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45896.32207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>45896.56527777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45146.60487268519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>45244</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45210</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45027</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>45902.46303240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45824.44797453703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45723.58368055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44698.63287037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45699.73377314815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45512.61466435185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45917.34028935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>45917.35539351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45919</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>45831.45087962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>45049.59413194445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45924.47732638889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45512.48333333333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44502</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>45924.465625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>45926.63998842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>45926.67944444445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>45929.54858796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45926.64662037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>45931.52583333333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>45838.42087962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         <v>45839</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>45838.429375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>45839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>45519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45838.41809027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>45932.68246527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>45183</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45707.60079861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45936.48025462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45936.48396990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45582.645</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45936.45259259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>45937.44017361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45729.47584490741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45161</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45678.74392361111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>45937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45405.4284837963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>45405.44401620371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44698</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>45944.64935185185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45944.56123842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45947.60431712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45852.96164351852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45699.65527777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45950.41077546297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45707.63336805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45516.37510416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45516.37806712963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45820.6679050926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>45947.43230324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>45699.57212962963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45671.40879629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44251</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>45412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45328</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>45328</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>45691.59927083334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>45065.8480787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>45776.49586805556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45973.38752314815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44512</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45973.39159722222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>45750.42609953704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45973.39390046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45316</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>46021.44653935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>45163.82409722222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>46021.43045138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45603.60148148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45145.65895833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45272</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>46024.75453703704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45603.59828703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>46029.54315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>46029.54603009259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>46024</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>46029.50876157408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45699.62314814814</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45048.59175925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45645.4250925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45240.36252314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>46031.45724537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45027</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>46031.4699537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>46031.46385416666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>46031.49496527778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>46031.49496527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>46031.46109953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45163.82409722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45163.83277777778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>46030.75045138889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>46031.57445601852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>46034.76097222222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45163</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45203</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>46034.75418981481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>46034.44234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>46034.43668981481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45009.50450231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45747.37114583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44623.30403935185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45145.45221064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44700.49002314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44658.63459490741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45699.40489583334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45700.31006944444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45160.37083333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45699.64960648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>46002.82631944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>46002.68319444444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>46002.70064814815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>46002.70159722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>46002.71087962963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>46002.72216435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>46002.83247685185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>46003.59736111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>46001</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>46002.40453703704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45331</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>46006.66340277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>46006.66827546297</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>46007.56096064814</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>46006.55504629629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>46008.60917824074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>45163</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>46009.66163194444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45600</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>46008.63946759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45313</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45281.67853009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45281.68364583333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45153</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>46009.76274305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>46031.47650462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45027.68865740741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45065</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45533.77303240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45163.35730324074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>46059.3469675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45692.5587962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45405</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45145.45475694445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45113</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45113.47913194444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45373.60663194444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45373.61019675926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45699.61924768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45607.38569444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44992</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45707.60672453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45707.64212962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45146.5737037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45747.4921875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44242</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45009.55140046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45747.4431712963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45471</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45699.38880787037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45166</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45617.66524305556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44356.58797453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45015.56837962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45225.42056712963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45603.43375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45707.5974537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>44994</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45714</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44999.36930555556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>44812</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45699.65956018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44936.55375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45397</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45084</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45345.43415509259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45747.43165509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45491</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44709</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44546.49693287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45014.52033564815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45194.71233796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45203.45528935185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45783.46362268519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45782.42425925926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45782.65224537037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45217</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45782.37634259259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45796.47868055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45796.4834837963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
